--- a/Estudo Ganho RLs NF.xlsx
+++ b/Estudo Ganho RLs NF.xlsx
@@ -1,111 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="2" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estudo por Chave" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Estudo Aliementador BQB07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Estudo Aliementador TDE01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Estudo Aliementador AUG02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Estudo Subestação TDE" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Núcleo / Unidade</t>
-  </si>
-  <si>
-    <t>Subestação</t>
-  </si>
-  <si>
-    <t>Alimentador</t>
-  </si>
-  <si>
-    <t>Chave Referência</t>
-  </si>
-  <si>
-    <t>Unidade Consumidoras</t>
-  </si>
-  <si>
-    <t>DIC Chave [h*ucs]</t>
-  </si>
-  <si>
-    <t>DEC Chave [h]</t>
-  </si>
-  <si>
-    <t>DIC Acumulado [h * ucs]</t>
-  </si>
-  <si>
-    <t>DEC Acumulado [h]</t>
-  </si>
-  <si>
-    <t>DIC Futuro [h * ucs]</t>
-  </si>
-  <si>
-    <t>DEC Futuro [h]</t>
-  </si>
-  <si>
-    <t>DIC Acumulado Futuro [h * ucs]</t>
-  </si>
-  <si>
-    <t>DEC Acumulado Futuro [h]</t>
-  </si>
-  <si>
-    <t>Redução DIC Acumulado [%]</t>
-  </si>
-  <si>
-    <t>Redução DEC: [%]</t>
-  </si>
-  <si>
-    <t>NUCAP</t>
-  </si>
-  <si>
-    <t>BQB</t>
-  </si>
-  <si>
-    <t>DJ_BQB05_FICT</t>
-  </si>
-  <si>
-    <t>FNS_4382</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,21 +73,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,108 +469,1459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="29" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="26.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Núcleo / Unidade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Subestação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Alimentador</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chave</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unidade Consumidoras</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DIC Chave [h*ucs]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DIC Acumulado [h * ucs]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DIC Futuro [h * ucs]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DIC Acumulado Futuro [h * ucs]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Redução DIC Acumulado [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BQB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BQB07</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FNS_3303</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>130</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1776.866666666667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1866.866666666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1722.476666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1758.476666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BQB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BQB07</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FNS_4983</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>608.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>814.15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>368.4400000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>498.8600000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BQB</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BQB07</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FNS_4564</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1032</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5459.799999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5459.799999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4909.179999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4909.179999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BQB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BQB07</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FNS_4949</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>437.3333333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>437.3333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>174.9333333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>174.9333333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AUG02</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FNS_1700</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>538</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G6" t="n">
+        <v>14069.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10760.59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AUG02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FNS_1700</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>538</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14069.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11206.92</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NUCAP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AUG02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FNS_1700</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>538</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14069.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11206.92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="40" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Chave</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Redução DEC estimada [HI]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Interrupções no periodo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unidades consumidoras a jusante da Chave</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FNS_4564</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1089473684210526</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FNS_4949</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0519192718638702</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FNS_4983</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04741986545310645</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FNS_3351</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01149584487534626</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FNS_3303</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01076177285318557</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FNS_4896</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.008250890383854374</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FNS_3063</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0002552433715868619</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="40" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Chave</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Redução DEC estimada [HI]</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Interrupções no periodo</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Unidades consumidoras a jusante da Chave</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FNS_4676</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01648160577875795</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FNS_4140</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.009540224374340784</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FNS_3860</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.008491865631092789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FNS_3735</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001968868859270623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FNS_80550</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001821842937961454</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="25.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="40" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Chave</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Redução DEC estimada [HI]</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Interrupções no periodo</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Unidades consumidoras a jusante da Chave</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FNS_659</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.800520446096654</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FNS_663</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3321747211895911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FNS_3008</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1445353159851301</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FNS_80304</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07081784386617099</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FNS_3133</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05650557620817843</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FNS_17634</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02908921933085502</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FNS_80082</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02907063197026022</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Alimentador</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Chave</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Redução DEC SE estimada [HI]</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Redução DEC Alimentador estimada [HI]</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Interrupções</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>UCs a jusante da Chave</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FNS_4148</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.006408092086731675</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03832519401855007</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TDE08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FNS_4459</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00551893734392951</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04133453433522175</v>
+      </c>
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TDE01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FNS_4676</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003264053069504974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01648160577875795</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TDE08</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FNS_4124</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003130176634605951</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02344371488847275</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FNS_4591</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002754246541525431</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0164724588302101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FNS_3435</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.002314289964331265</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01384118871853113</v>
+      </c>
+      <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F7" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TDE01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FNS_4140</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001889366792947276</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.009540224374340784</v>
+      </c>
+      <c r="E8" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>236</v>
-      </c>
-      <c r="F2">
-        <v>8384.866666666667</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>12806.68</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>8384.866666666667</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10385.96</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>18.9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
+      <c r="F8" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FNS_4113</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00177780309719809</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01063259511641113</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TDE01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FNS_3860</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001681747546389926</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008491865631092789</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TDE06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FNS_81074</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001304203340264525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01459155129067667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TDE06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FNS_3950</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001267363583710751</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01417938458269891</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TDE08</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FNS_81081</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001052781496567636</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.007884893450589044</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TDE09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FNS_3622</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0009582134617027942</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0160292249047014</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FNS_16369</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0009049793804970835</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.005412455044482302</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TDE10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FNS_80660</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0008068982760639697</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4249166666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TDE04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FNS_4462</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0007172675281599428</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01080837466615795</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FNS_4132</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0006768197542117271</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.004047889456748058</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FNS_4117</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0004965138323158091</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.002969524891160326</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TDE09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FNS_4136</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.000484075667087602</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.008097734011012282</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TDE01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FNS_3735</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0003899190728028281</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001968868859270623</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TDE01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FNS_80550</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0003608017394441754</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.001821842937961454</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FNS_4620</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0001267236986609192</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0007579027067953814</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TDE06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FNS_4026</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00012457154793441</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.001393718352749548</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TDE09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FNS_4709</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.456452179527349e-05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.00108005082592122</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TDE07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FNS_17239</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5.506973917832151e-05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.000329358319136854</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>